--- a/UDM.Insurance.Interface/Templates/PrintTemplateUpgrade5.xlsx
+++ b/UDM.Insurance.Interface/Templates/PrintTemplateUpgrade5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\udminsure\UDM.Insurance.Interface\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TyronR\Desktop\Source\udminsure\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7459A1-411F-408D-A971-53A382919CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C91FC-25F5-4711-9632-E50D6C404D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -330,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R&quot;\ #,##0.00;[Red]&quot;R&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +432,36 @@
     <font>
       <b/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -774,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,9 +907,66 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -895,6 +982,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,164 +1114,177 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1099,8 +1295,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,155 +1318,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,17 +1875,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="2" max="3" width="24.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="60" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1894,7 @@
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1845,126 +1911,126 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1985,17 +2051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:BC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="75" width="2.5703125" style="17" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="75" width="2.59765625" style="17" customWidth="1"/>
+    <col min="76" max="16384" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>34</v>
       </c>
@@ -2072,121 +2138,121 @@
       <c r="BB1" s="61"/>
       <c r="BC1" s="61"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="150"/>
-      <c r="AR2" s="150"/>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="182"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="182"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="150"/>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="150"/>
-      <c r="AX3" s="150"/>
-      <c r="AY3" s="150"/>
-      <c r="AZ3" s="150"/>
-      <c r="BA3" s="150"/>
-      <c r="BB3" s="150"/>
-      <c r="BC3" s="150"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
         <v>64</v>
       </c>
@@ -2261,65 +2327,65 @@
       <c r="BB4" s="61"/>
       <c r="BC4" s="61"/>
     </row>
-    <row r="5" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="185"/>
-      <c r="BB5" s="185"/>
-      <c r="BC5" s="185"/>
+    <row r="5" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
       <c r="BD5" s="20"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>44</v>
       </c>
@@ -2393,65 +2459,65 @@
       <c r="BC6" s="61"/>
       <c r="BD6" s="19"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="151"/>
-      <c r="AQ7" s="151"/>
-      <c r="AR7" s="151"/>
-      <c r="AS7" s="151"/>
-      <c r="AT7" s="151"/>
-      <c r="AU7" s="151"/>
-      <c r="AV7" s="151"/>
-      <c r="AW7" s="151"/>
-      <c r="AX7" s="151"/>
-      <c r="AY7" s="151"/>
-      <c r="AZ7" s="151"/>
-      <c r="BA7" s="151"/>
-      <c r="BB7" s="151"/>
-      <c r="BC7" s="151"/>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="62"/>
       <c r="BD7" s="18"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>63</v>
       </c>
@@ -2518,324 +2584,355 @@
       <c r="BB8" s="61"/>
       <c r="BC8" s="61"/>
     </row>
-    <row r="9" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="186"/>
-      <c r="AY9" s="186"/>
-      <c r="AZ9" s="186"/>
-      <c r="BA9" s="186"/>
-      <c r="BB9" s="186"/>
-      <c r="BC9" s="186"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A10" s="187" t="s">
+    <row r="9" spans="1:56" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
+      <c r="BC9" s="69"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="190" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="190" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="190"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190" t="s">
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190" t="s">
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="190"/>
-      <c r="AF10" s="190"/>
-      <c r="AG10" s="190"/>
-      <c r="AH10" s="190"/>
-      <c r="AI10" s="190"/>
-      <c r="AJ10" s="190" t="s">
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AK10" s="190"/>
-      <c r="AL10" s="190"/>
-      <c r="AM10" s="190"/>
-      <c r="AN10" s="190"/>
-      <c r="AO10" s="190"/>
-      <c r="AP10" s="190"/>
-      <c r="AQ10" s="190" t="s">
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AR10" s="190"/>
-      <c r="AS10" s="190"/>
-      <c r="AT10" s="190"/>
-      <c r="AU10" s="190"/>
-      <c r="AV10" s="190"/>
-      <c r="AW10" s="190"/>
-      <c r="AX10" s="190" t="s">
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AY10" s="190"/>
-      <c r="AZ10" s="190"/>
-      <c r="BA10" s="190"/>
-      <c r="BB10" s="190"/>
-      <c r="BC10" s="190"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="190"/>
-      <c r="AK11" s="190"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="190"/>
-      <c r="AN11" s="190"/>
-      <c r="AO11" s="190"/>
-      <c r="AP11" s="190"/>
-      <c r="AQ11" s="190"/>
-      <c r="AR11" s="190"/>
-      <c r="AS11" s="190"/>
-      <c r="AT11" s="190"/>
-      <c r="AU11" s="190"/>
-      <c r="AV11" s="190"/>
-      <c r="AW11" s="190"/>
-      <c r="AX11" s="190"/>
-      <c r="AY11" s="190"/>
-      <c r="AZ11" s="190"/>
-      <c r="BA11" s="190"/>
-      <c r="BB11" s="190"/>
-      <c r="BC11" s="190"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A12" s="187" t="s">
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="72"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A12" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="190"/>
-      <c r="R12" s="190"/>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="190"/>
-      <c r="AG12" s="190"/>
-      <c r="AH12" s="190"/>
-      <c r="AI12" s="190"/>
-      <c r="AJ12" s="190"/>
-      <c r="AK12" s="190"/>
-      <c r="AL12" s="190"/>
-      <c r="AM12" s="190"/>
-      <c r="AN12" s="190"/>
-      <c r="AO12" s="190"/>
-      <c r="AP12" s="190"/>
-      <c r="AQ12" s="190"/>
-      <c r="AR12" s="190"/>
-      <c r="AS12" s="190"/>
-      <c r="AT12" s="190"/>
-      <c r="AU12" s="190"/>
-      <c r="AV12" s="190"/>
-      <c r="AW12" s="190"/>
-      <c r="AX12" s="190"/>
-      <c r="AY12" s="190"/>
-      <c r="AZ12" s="190"/>
-      <c r="BA12" s="190"/>
-      <c r="BB12" s="190"/>
-      <c r="BC12" s="190"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
-      <c r="Z13" s="190"/>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="190"/>
-      <c r="AF13" s="190"/>
-      <c r="AG13" s="190"/>
-      <c r="AH13" s="190"/>
-      <c r="AI13" s="190"/>
-      <c r="AJ13" s="190"/>
-      <c r="AK13" s="190"/>
-      <c r="AL13" s="190"/>
-      <c r="AM13" s="190"/>
-      <c r="AN13" s="190"/>
-      <c r="AO13" s="190"/>
-      <c r="AP13" s="190"/>
-      <c r="AQ13" s="190"/>
-      <c r="AR13" s="190"/>
-      <c r="AS13" s="190"/>
-      <c r="AT13" s="190"/>
-      <c r="AU13" s="190"/>
-      <c r="AV13" s="190"/>
-      <c r="AW13" s="190"/>
-      <c r="AX13" s="190"/>
-      <c r="AY13" s="190"/>
-      <c r="AZ13" s="190"/>
-      <c r="BA13" s="190"/>
-      <c r="BB13" s="190"/>
-      <c r="BC13" s="190"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AX7:BC7"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="O8:AB8"/>
-    <mergeCell ref="AC8:AP8"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AC1:AO1"/>
+    <mergeCell ref="AC2:AO3"/>
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:O3"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="P2:W3"/>
+    <mergeCell ref="X2:AB3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="AX6:BC6"/>
+    <mergeCell ref="Z5:AL5"/>
+    <mergeCell ref="AM5:AY5"/>
+    <mergeCell ref="AZ5:BC5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="AM4:AY4"/>
+    <mergeCell ref="Z4:AL4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR2:AU3"/>
+    <mergeCell ref="AV2:AY3"/>
+    <mergeCell ref="AZ2:BC3"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="O9:AB9"/>
+    <mergeCell ref="AC9:AP9"/>
+    <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="V6:AB6"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AP6"/>
+    <mergeCell ref="AQ8:AW8"/>
     <mergeCell ref="A12:D13"/>
     <mergeCell ref="AX9:BC9"/>
     <mergeCell ref="A5:E5"/>
@@ -2852,50 +2949,19 @@
     <mergeCell ref="E10:N13"/>
     <mergeCell ref="O10:U13"/>
     <mergeCell ref="V10:AB13"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="O9:AB9"/>
-    <mergeCell ref="AC9:AP9"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="V6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AP6"/>
-    <mergeCell ref="AQ8:AW8"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR2:AU3"/>
-    <mergeCell ref="AV2:AY3"/>
-    <mergeCell ref="AZ2:BC3"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="AM4:AY4"/>
-    <mergeCell ref="Z4:AL4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AX6:BC6"/>
-    <mergeCell ref="Z5:AL5"/>
-    <mergeCell ref="AM5:AY5"/>
-    <mergeCell ref="AZ5:BC5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AC1:AO1"/>
-    <mergeCell ref="AC2:AO3"/>
-    <mergeCell ref="P1:W1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:O3"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="P2:W3"/>
-    <mergeCell ref="X2:AB3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="O8:AB8"/>
+    <mergeCell ref="AC8:AP8"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2910,12 +2976,12 @@
       <selection activeCell="AA19" sqref="AA19:AZ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="55" width="2.5703125" customWidth="1"/>
+    <col min="1" max="55" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2972,7 +3038,7 @@
       <c r="BB1" s="17"/>
       <c r="BC1" s="17"/>
     </row>
-    <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3010,7 +3076,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="8"/>
@@ -3065,7 +3131,7 @@
       <c r="AZ3" s="9"/>
       <c r="BA3" s="10"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>
@@ -3120,7 +3186,7 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="12"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="11"/>
@@ -3175,7 +3241,7 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="12"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="11"/>
@@ -3230,7 +3296,7 @@
       <c r="AZ6" s="1"/>
       <c r="BA6" s="12"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="11"/>
@@ -3285,7 +3351,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="12"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="11"/>
@@ -3340,7 +3406,7 @@
       <c r="AZ8" s="1"/>
       <c r="BA8" s="12"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="11"/>
@@ -3395,7 +3461,7 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="12"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="11"/>
@@ -3450,7 +3516,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="12"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="11"/>
@@ -3505,7 +3571,7 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="12"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="11"/>
@@ -3560,7 +3626,7 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="12"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="11"/>
@@ -3615,7 +3681,7 @@
       <c r="AZ13" s="1"/>
       <c r="BA13" s="12"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="11"/>
@@ -3670,7 +3736,7 @@
       <c r="AZ14" s="1"/>
       <c r="BA14" s="12"/>
     </row>
-    <row r="15" spans="1:55" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
@@ -3686,48 +3752,48 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="63" t="s">
+      <c r="P15" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
       <c r="BA15" s="25"/>
     </row>
-    <row r="16" spans="1:55" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -3743,48 +3809,48 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="63" t="s">
+      <c r="P16" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="85"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="85"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="85"/>
+      <c r="AY16" s="85"/>
+      <c r="AZ16" s="85"/>
       <c r="BA16" s="25"/>
     </row>
-    <row r="17" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
@@ -3800,48 +3866,48 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="63" t="s">
+      <c r="P17" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="85"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="85"/>
       <c r="BA17" s="25"/>
     </row>
-    <row r="18" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -3857,48 +3923,48 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="63" t="s">
+      <c r="P18" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="85"/>
+      <c r="AN18" s="85"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
       <c r="BA18" s="25"/>
     </row>
-    <row r="19" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -3914,48 +3980,48 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="67"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="86"/>
+      <c r="AX19" s="86"/>
+      <c r="AY19" s="86"/>
+      <c r="AZ19" s="86"/>
       <c r="BA19" s="25"/>
     </row>
-    <row r="20" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -3971,48 +4037,48 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="63" t="s">
+      <c r="P20" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="64"/>
-      <c r="AO20" s="64"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="64"/>
-      <c r="AY20" s="64"/>
-      <c r="AZ20" s="64"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="83"/>
+      <c r="AO20" s="83"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="83"/>
       <c r="BA20" s="25"/>
     </row>
-    <row r="21" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
@@ -4028,48 +4094,48 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="63" t="s">
+      <c r="P21" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="84"/>
       <c r="BA21" s="25"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C22" s="11"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4122,7 +4188,7 @@
       <c r="AZ22" s="1"/>
       <c r="BA22" s="12"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C23" s="11"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4175,7 +4241,7 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="12"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4228,7 +4294,7 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="12"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C25" s="11"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4281,7 +4347,7 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="12"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C26" s="11"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4334,7 +4400,7 @@
       <c r="AZ26" s="1"/>
       <c r="BA26" s="12"/>
     </row>
-    <row r="27" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -4418,130 +4484,130 @@
       <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
+    <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.65">
+      <c r="B3" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="G4" s="5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="80" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="80" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="95" t="s">
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B16" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4553,7 +4619,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4565,7 +4631,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4577,7 +4643,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4591,7 +4657,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4605,23 +4671,23 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="95" t="s">
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B22" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="103"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4635,120 +4701,164 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="95" t="s">
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B25" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="98" t="s">
+      <c r="F25" s="100"/>
+      <c r="G25" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="98" t="s">
+      <c r="H25" s="100"/>
+      <c r="I25" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="99"/>
-      <c r="K25" s="98" t="s">
+      <c r="J25" s="100"/>
+      <c r="K25" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="99"/>
-      <c r="M25" s="98" t="s">
+      <c r="L25" s="100"/>
+      <c r="M25" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="99"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="100" t="s">
+      <c r="N25" s="100"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B26" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="104"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="106" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="110"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="100" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="93"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B28" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="106" t="s">
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B29" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="100" t="s">
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B30" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:F29"/>
@@ -4761,50 +4871,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4815,18 +4881,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BD306"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ50" sqref="A50:AP55"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:AP46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="55" width="2.42578125" customWidth="1"/>
-    <col min="56" max="61" width="1.140625" customWidth="1"/>
+    <col min="1" max="55" width="2.3984375" customWidth="1"/>
+    <col min="56" max="61" width="1.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:53" s="17" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:53" s="17" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -4864,7 +4930,7 @@
       <c r="AI2" s="26"/>
       <c r="AJ2" s="26"/>
     </row>
-    <row r="3" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -4919,7 +4985,7 @@
       <c r="AZ3" s="28"/>
       <c r="BA3" s="29"/>
     </row>
-    <row r="4" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="30"/>
@@ -4974,7 +5040,7 @@
       <c r="AZ4" s="26"/>
       <c r="BA4" s="31"/>
     </row>
-    <row r="5" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="30"/>
@@ -5029,7 +5095,7 @@
       <c r="AZ5" s="26"/>
       <c r="BA5" s="31"/>
     </row>
-    <row r="6" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="30"/>
@@ -5084,7 +5150,7 @@
       <c r="AZ6" s="26"/>
       <c r="BA6" s="31"/>
     </row>
-    <row r="7" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="30"/>
@@ -5139,7 +5205,7 @@
       <c r="AZ7" s="26"/>
       <c r="BA7" s="31"/>
     </row>
-    <row r="8" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="30"/>
@@ -5194,7 +5260,7 @@
       <c r="AZ8" s="26"/>
       <c r="BA8" s="31"/>
     </row>
-    <row r="9" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
@@ -5249,7 +5315,7 @@
       <c r="AZ9" s="26"/>
       <c r="BA9" s="31"/>
     </row>
-    <row r="10" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="30"/>
@@ -5304,7 +5370,7 @@
       <c r="AZ10" s="26"/>
       <c r="BA10" s="31"/>
     </row>
-    <row r="11" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="30"/>
@@ -5359,7 +5425,7 @@
       <c r="AZ11" s="26"/>
       <c r="BA11" s="31"/>
     </row>
-    <row r="12" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="30"/>
@@ -5414,7 +5480,7 @@
       <c r="AZ12" s="26"/>
       <c r="BA12" s="31"/>
     </row>
-    <row r="13" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="30"/>
@@ -5469,7 +5535,7 @@
       <c r="AZ13" s="26"/>
       <c r="BA13" s="31"/>
     </row>
-    <row r="14" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="30"/>
@@ -5524,7 +5590,7 @@
       <c r="AZ14" s="26"/>
       <c r="BA14" s="31"/>
     </row>
-    <row r="15" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="30"/>
@@ -5579,7 +5645,7 @@
       <c r="AZ15" s="26"/>
       <c r="BA15" s="31"/>
     </row>
-    <row r="16" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="30"/>
@@ -5634,7 +5700,7 @@
       <c r="AZ16" s="26"/>
       <c r="BA16" s="31"/>
     </row>
-    <row r="17" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="30"/>
@@ -5689,7 +5755,7 @@
       <c r="AZ17" s="26"/>
       <c r="BA17" s="31"/>
     </row>
-    <row r="18" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -5705,48 +5771,48 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="63" t="s">
+      <c r="P18" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="85"/>
+      <c r="AN18" s="85"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
       <c r="BA18" s="25"/>
     </row>
-    <row r="19" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -5762,48 +5828,48 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="85"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="85"/>
+      <c r="AX19" s="85"/>
+      <c r="AY19" s="85"/>
+      <c r="AZ19" s="85"/>
       <c r="BA19" s="25"/>
     </row>
-    <row r="20" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -5819,48 +5885,48 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="63" t="s">
+      <c r="P20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="85"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="85"/>
+      <c r="AY20" s="85"/>
+      <c r="AZ20" s="85"/>
       <c r="BA20" s="25"/>
     </row>
-    <row r="21" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
@@ -5876,48 +5942,48 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="63" t="s">
+      <c r="P21" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="85"/>
+      <c r="AM21" s="85"/>
+      <c r="AN21" s="85"/>
+      <c r="AO21" s="85"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
+      <c r="AW21" s="85"/>
+      <c r="AX21" s="85"/>
+      <c r="AY21" s="85"/>
+      <c r="AZ21" s="85"/>
       <c r="BA21" s="25"/>
     </row>
-    <row r="22" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
@@ -5933,48 +5999,48 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="63" t="s">
+      <c r="P22" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="85"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="85"/>
+      <c r="AJ22" s="85"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="85"/>
+      <c r="AM22" s="85"/>
+      <c r="AN22" s="85"/>
+      <c r="AO22" s="85"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="85"/>
+      <c r="AX22" s="85"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="85"/>
       <c r="BA22" s="25"/>
     </row>
-    <row r="23" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -5990,48 +6056,48 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="63" t="s">
+      <c r="P23" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="64"/>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="64"/>
-      <c r="AU23" s="64"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="64"/>
-      <c r="AX23" s="64"/>
-      <c r="AY23" s="64"/>
-      <c r="AZ23" s="64"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="83"/>
+      <c r="AO23" s="83"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="83"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
       <c r="BA23" s="25"/>
     </row>
-    <row r="24" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
@@ -6047,48 +6113,48 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="63" t="s">
+      <c r="P24" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
-      <c r="AZ24" s="65"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="84"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="84"/>
       <c r="BA24" s="25"/>
     </row>
-    <row r="25" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C25" s="30"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -6141,7 +6207,7 @@
       <c r="AZ25" s="26"/>
       <c r="BA25" s="31"/>
     </row>
-    <row r="26" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C26" s="30"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -6194,7 +6260,7 @@
       <c r="AZ26" s="26"/>
       <c r="BA26" s="31"/>
     </row>
-    <row r="27" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C27" s="30"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -6247,7 +6313,7 @@
       <c r="AZ27" s="26"/>
       <c r="BA27" s="31"/>
     </row>
-    <row r="28" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C28" s="30"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -6300,7 +6366,7 @@
       <c r="AZ28" s="26"/>
       <c r="BA28" s="31"/>
     </row>
-    <row r="29" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C29" s="30"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -6353,7 +6419,7 @@
       <c r="AZ29" s="26"/>
       <c r="BA29" s="31"/>
     </row>
-    <row r="30" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C30" s="30"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -6406,7 +6472,7 @@
       <c r="AZ30" s="26"/>
       <c r="BA30" s="31"/>
     </row>
-    <row r="31" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C31" s="30"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -6459,7 +6525,7 @@
       <c r="AZ31" s="26"/>
       <c r="BA31" s="31"/>
     </row>
-    <row r="32" spans="1:53" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="C32" s="30"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -6512,7 +6578,7 @@
       <c r="AZ32" s="26"/>
       <c r="BA32" s="31"/>
     </row>
-    <row r="33" spans="1:56" s="17" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" s="17" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -6565,1253 +6631,1316 @@
       <c r="AZ33" s="33"/>
       <c r="BA33" s="34"/>
     </row>
-    <row r="34" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:56" s="17" customFormat="1" ht="2.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:56" s="17" customFormat="1" ht="2.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="112" t="s">
+    <row r="34" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:56" s="17" customFormat="1" ht="2.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:56" s="17" customFormat="1" ht="2.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113" t="s">
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="112" t="s">
+      <c r="H41" s="183"/>
+      <c r="I41" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112" t="s">
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="112"/>
-      <c r="X41" s="112" t="s">
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="182"/>
+      <c r="T41" s="182"/>
+      <c r="U41" s="182"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="182"/>
+      <c r="X41" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="Y41" s="112"/>
-      <c r="Z41" s="112"/>
-      <c r="AA41" s="112"/>
-      <c r="AB41" s="112"/>
-      <c r="AC41" s="112" t="s">
+      <c r="Y41" s="182"/>
+      <c r="Z41" s="182"/>
+      <c r="AA41" s="182"/>
+      <c r="AB41" s="182"/>
+      <c r="AC41" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="AD41" s="112"/>
-      <c r="AE41" s="112"/>
-      <c r="AF41" s="112"/>
-      <c r="AG41" s="112"/>
-      <c r="AH41" s="112"/>
-      <c r="AI41" s="112"/>
-      <c r="AJ41" s="112"/>
-      <c r="AK41" s="112"/>
-      <c r="AL41" s="112"/>
-      <c r="AM41" s="112"/>
-      <c r="AN41" s="112"/>
-      <c r="AO41" s="112"/>
-      <c r="AP41" s="112" t="s">
+      <c r="AD41" s="182"/>
+      <c r="AE41" s="182"/>
+      <c r="AF41" s="182"/>
+      <c r="AG41" s="182"/>
+      <c r="AH41" s="182"/>
+      <c r="AI41" s="182"/>
+      <c r="AJ41" s="182"/>
+      <c r="AK41" s="182"/>
+      <c r="AL41" s="182"/>
+      <c r="AM41" s="182"/>
+      <c r="AN41" s="182"/>
+      <c r="AO41" s="182"/>
+      <c r="AP41" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="AQ41" s="112"/>
-      <c r="AR41" s="112" t="s">
+      <c r="AQ41" s="182"/>
+      <c r="AR41" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="AS41" s="112"/>
-      <c r="AT41" s="112"/>
-      <c r="AU41" s="112"/>
-      <c r="AV41" s="112" t="s">
+      <c r="AS41" s="182"/>
+      <c r="AT41" s="182"/>
+      <c r="AU41" s="182"/>
+      <c r="AV41" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="AW41" s="112"/>
-      <c r="AX41" s="112"/>
-      <c r="AY41" s="112"/>
-      <c r="AZ41" s="112" t="s">
+      <c r="AW41" s="182"/>
+      <c r="AX41" s="182"/>
+      <c r="AY41" s="182"/>
+      <c r="AZ41" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="BA41" s="112"/>
-      <c r="BB41" s="112"/>
-      <c r="BC41" s="112"/>
+      <c r="BA41" s="182"/>
+      <c r="BB41" s="182"/>
+      <c r="BC41" s="182"/>
       <c r="BD41" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="150"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="150"/>
-      <c r="AA42" s="150"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="117"/>
-      <c r="AG42" s="117"/>
-      <c r="AH42" s="117"/>
-      <c r="AI42" s="117"/>
-      <c r="AJ42" s="117"/>
-      <c r="AK42" s="117"/>
-      <c r="AL42" s="117"/>
-      <c r="AM42" s="117"/>
-      <c r="AN42" s="117"/>
-      <c r="AO42" s="118"/>
-      <c r="AP42" s="150"/>
-      <c r="AQ42" s="150"/>
-      <c r="AR42" s="150"/>
-      <c r="AS42" s="150"/>
-      <c r="AT42" s="150"/>
-      <c r="AU42" s="150"/>
-      <c r="AV42" s="150"/>
-      <c r="AW42" s="150"/>
-      <c r="AX42" s="150"/>
-      <c r="AY42" s="150"/>
-      <c r="AZ42" s="150"/>
-      <c r="BA42" s="150"/>
-      <c r="BB42" s="150"/>
-      <c r="BC42" s="150"/>
+    <row r="42" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="176"/>
+      <c r="AD42" s="177"/>
+      <c r="AE42" s="177"/>
+      <c r="AF42" s="177"/>
+      <c r="AG42" s="177"/>
+      <c r="AH42" s="177"/>
+      <c r="AI42" s="177"/>
+      <c r="AJ42" s="177"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="177"/>
+      <c r="AM42" s="177"/>
+      <c r="AN42" s="177"/>
+      <c r="AO42" s="178"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="73"/>
+      <c r="AR42" s="73"/>
+      <c r="AS42" s="73"/>
+      <c r="AT42" s="73"/>
+      <c r="AU42" s="73"/>
+      <c r="AV42" s="73"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="73"/>
+      <c r="AY42" s="73"/>
+      <c r="AZ42" s="73"/>
+      <c r="BA42" s="73"/>
+      <c r="BB42" s="73"/>
+      <c r="BC42" s="73"/>
       <c r="BD42" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="150"/>
-      <c r="Y43" s="150"/>
-      <c r="Z43" s="150"/>
-      <c r="AA43" s="150"/>
-      <c r="AB43" s="150"/>
-      <c r="AC43" s="119"/>
-      <c r="AD43" s="120"/>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120"/>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120"/>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120"/>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="121"/>
-      <c r="AP43" s="150"/>
-      <c r="AQ43" s="150"/>
-      <c r="AR43" s="150"/>
-      <c r="AS43" s="150"/>
-      <c r="AT43" s="150"/>
-      <c r="AU43" s="150"/>
-      <c r="AV43" s="150"/>
-      <c r="AW43" s="150"/>
-      <c r="AX43" s="150"/>
-      <c r="AY43" s="150"/>
-      <c r="AZ43" s="150"/>
-      <c r="BA43" s="150"/>
-      <c r="BB43" s="150"/>
-      <c r="BC43" s="150"/>
+    <row r="43" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="179"/>
+      <c r="AD43" s="180"/>
+      <c r="AE43" s="180"/>
+      <c r="AF43" s="180"/>
+      <c r="AG43" s="180"/>
+      <c r="AH43" s="180"/>
+      <c r="AI43" s="180"/>
+      <c r="AJ43" s="180"/>
+      <c r="AK43" s="180"/>
+      <c r="AL43" s="180"/>
+      <c r="AM43" s="180"/>
+      <c r="AN43" s="180"/>
+      <c r="AO43" s="181"/>
+      <c r="AP43" s="73"/>
+      <c r="AQ43" s="73"/>
+      <c r="AR43" s="73"/>
+      <c r="AS43" s="73"/>
+      <c r="AT43" s="73"/>
+      <c r="AU43" s="73"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="73"/>
+      <c r="AY43" s="73"/>
+      <c r="AZ43" s="73"/>
+      <c r="BA43" s="73"/>
+      <c r="BB43" s="73"/>
+      <c r="BC43" s="73"/>
       <c r="BD43" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113" t="s">
+    <row r="44" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="113" t="s">
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="158"/>
+      <c r="O44" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="126"/>
-      <c r="U44" s="126"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="124"/>
-      <c r="Y44" s="124"/>
-      <c r="Z44" s="124"/>
-      <c r="AA44" s="124"/>
-      <c r="AB44" s="125"/>
-      <c r="AC44" s="113" t="s">
+      <c r="P44" s="167"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="167"/>
+      <c r="U44" s="167"/>
+      <c r="V44" s="157"/>
+      <c r="W44" s="157"/>
+      <c r="X44" s="157"/>
+      <c r="Y44" s="157"/>
+      <c r="Z44" s="157"/>
+      <c r="AA44" s="157"/>
+      <c r="AB44" s="158"/>
+      <c r="AC44" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="AD44" s="126"/>
-      <c r="AE44" s="126"/>
-      <c r="AF44" s="126"/>
-      <c r="AG44" s="126"/>
-      <c r="AH44" s="126"/>
-      <c r="AI44" s="126"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="125"/>
-      <c r="AQ44" s="113" t="s">
+      <c r="AD44" s="167"/>
+      <c r="AE44" s="167"/>
+      <c r="AF44" s="167"/>
+      <c r="AG44" s="167"/>
+      <c r="AH44" s="167"/>
+      <c r="AI44" s="167"/>
+      <c r="AJ44" s="157"/>
+      <c r="AK44" s="157"/>
+      <c r="AL44" s="157"/>
+      <c r="AM44" s="157"/>
+      <c r="AN44" s="157"/>
+      <c r="AO44" s="157"/>
+      <c r="AP44" s="158"/>
+      <c r="AQ44" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AR44" s="126"/>
-      <c r="AS44" s="126"/>
-      <c r="AT44" s="126"/>
-      <c r="AU44" s="126"/>
-      <c r="AV44" s="126"/>
-      <c r="AW44" s="126"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="125"/>
+      <c r="AR44" s="167"/>
+      <c r="AS44" s="167"/>
+      <c r="AT44" s="167"/>
+      <c r="AU44" s="167"/>
+      <c r="AV44" s="167"/>
+      <c r="AW44" s="167"/>
+      <c r="AX44" s="157"/>
+      <c r="AY44" s="157"/>
+      <c r="AZ44" s="157"/>
+      <c r="BA44" s="157"/>
+      <c r="BB44" s="157"/>
+      <c r="BC44" s="158"/>
       <c r="BD44" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="122" t="s">
+    <row r="45" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="154"/>
-      <c r="S45" s="154"/>
-      <c r="T45" s="154"/>
-      <c r="U45" s="155"/>
-      <c r="V45" s="151"/>
-      <c r="W45" s="151"/>
-      <c r="X45" s="151"/>
-      <c r="Y45" s="151"/>
-      <c r="Z45" s="151"/>
-      <c r="AA45" s="151"/>
-      <c r="AB45" s="151"/>
-      <c r="AC45" s="152"/>
-      <c r="AD45" s="153"/>
-      <c r="AE45" s="153"/>
-      <c r="AF45" s="154"/>
-      <c r="AG45" s="154"/>
-      <c r="AH45" s="154"/>
-      <c r="AI45" s="155"/>
-      <c r="AJ45" s="151"/>
-      <c r="AK45" s="151"/>
-      <c r="AL45" s="151"/>
-      <c r="AM45" s="151"/>
-      <c r="AN45" s="151"/>
-      <c r="AO45" s="151"/>
-      <c r="AP45" s="151"/>
-      <c r="AQ45" s="129" t="s">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="203"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="205"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="205"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="205"/>
+      <c r="O45" s="201"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="202"/>
+      <c r="R45" s="203"/>
+      <c r="S45" s="203"/>
+      <c r="T45" s="203"/>
+      <c r="U45" s="204"/>
+      <c r="V45" s="205"/>
+      <c r="W45" s="205"/>
+      <c r="X45" s="205"/>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="205"/>
+      <c r="AA45" s="205"/>
+      <c r="AB45" s="205"/>
+      <c r="AC45" s="201"/>
+      <c r="AD45" s="202"/>
+      <c r="AE45" s="202"/>
+      <c r="AF45" s="203"/>
+      <c r="AG45" s="203"/>
+      <c r="AH45" s="203"/>
+      <c r="AI45" s="204"/>
+      <c r="AJ45" s="205"/>
+      <c r="AK45" s="205"/>
+      <c r="AL45" s="205"/>
+      <c r="AM45" s="205"/>
+      <c r="AN45" s="205"/>
+      <c r="AO45" s="205"/>
+      <c r="AP45" s="205"/>
+      <c r="AQ45" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="AR45" s="124"/>
-      <c r="AS45" s="124"/>
-      <c r="AT45" s="124"/>
-      <c r="AU45" s="124"/>
-      <c r="AV45" s="124"/>
-      <c r="AW45" s="125"/>
-      <c r="AX45" s="151"/>
-      <c r="AY45" s="151"/>
-      <c r="AZ45" s="151"/>
-      <c r="BA45" s="151"/>
-      <c r="BB45" s="151"/>
-      <c r="BC45" s="151"/>
+      <c r="AR45" s="171"/>
+      <c r="AS45" s="171"/>
+      <c r="AT45" s="171"/>
+      <c r="AU45" s="171"/>
+      <c r="AV45" s="171"/>
+      <c r="AW45" s="172"/>
+      <c r="AX45" s="169"/>
+      <c r="AY45" s="169"/>
+      <c r="AZ45" s="169"/>
+      <c r="BA45" s="169"/>
+      <c r="BB45" s="169"/>
+      <c r="BC45" s="169"/>
       <c r="BD45" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="122" t="s">
+    <row r="46" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="151"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="153"/>
-      <c r="R46" s="154"/>
-      <c r="S46" s="154"/>
-      <c r="T46" s="154"/>
-      <c r="U46" s="155"/>
-      <c r="V46" s="151"/>
-      <c r="W46" s="151"/>
-      <c r="X46" s="151"/>
-      <c r="Y46" s="151"/>
-      <c r="Z46" s="151"/>
-      <c r="AA46" s="151"/>
-      <c r="AB46" s="151"/>
-      <c r="AC46" s="152"/>
-      <c r="AD46" s="153"/>
-      <c r="AE46" s="153"/>
-      <c r="AF46" s="154"/>
-      <c r="AG46" s="154"/>
-      <c r="AH46" s="154"/>
-      <c r="AI46" s="155"/>
-      <c r="AJ46" s="151"/>
-      <c r="AK46" s="151"/>
-      <c r="AL46" s="151"/>
-      <c r="AM46" s="151"/>
-      <c r="AN46" s="151"/>
-      <c r="AO46" s="151"/>
-      <c r="AP46" s="151"/>
-      <c r="AQ46" s="128" t="s">
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
+      <c r="J46" s="205"/>
+      <c r="K46" s="205"/>
+      <c r="L46" s="205"/>
+      <c r="M46" s="205"/>
+      <c r="N46" s="205"/>
+      <c r="O46" s="201"/>
+      <c r="P46" s="202"/>
+      <c r="Q46" s="202"/>
+      <c r="R46" s="203"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="203"/>
+      <c r="U46" s="204"/>
+      <c r="V46" s="205"/>
+      <c r="W46" s="205"/>
+      <c r="X46" s="205"/>
+      <c r="Y46" s="205"/>
+      <c r="Z46" s="205"/>
+      <c r="AA46" s="205"/>
+      <c r="AB46" s="205"/>
+      <c r="AC46" s="201"/>
+      <c r="AD46" s="202"/>
+      <c r="AE46" s="202"/>
+      <c r="AF46" s="203"/>
+      <c r="AG46" s="203"/>
+      <c r="AH46" s="203"/>
+      <c r="AI46" s="204"/>
+      <c r="AJ46" s="205"/>
+      <c r="AK46" s="205"/>
+      <c r="AL46" s="205"/>
+      <c r="AM46" s="205"/>
+      <c r="AN46" s="205"/>
+      <c r="AO46" s="205"/>
+      <c r="AP46" s="205"/>
+      <c r="AQ46" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="AR46" s="128"/>
-      <c r="AS46" s="128"/>
-      <c r="AT46" s="128"/>
-      <c r="AU46" s="128"/>
-      <c r="AV46" s="128"/>
-      <c r="AW46" s="128"/>
-      <c r="AX46" s="156"/>
-      <c r="AY46" s="163"/>
-      <c r="AZ46" s="163"/>
-      <c r="BA46" s="163"/>
-      <c r="BB46" s="163"/>
-      <c r="BC46" s="164"/>
+      <c r="AR46" s="168"/>
+      <c r="AS46" s="168"/>
+      <c r="AT46" s="168"/>
+      <c r="AU46" s="168"/>
+      <c r="AV46" s="168"/>
+      <c r="AW46" s="168"/>
+      <c r="AX46" s="173"/>
+      <c r="AY46" s="174"/>
+      <c r="AZ46" s="174"/>
+      <c r="BA46" s="174"/>
+      <c r="BB46" s="174"/>
+      <c r="BC46" s="175"/>
       <c r="BD46" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="122" t="s">
+    <row r="47" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="154"/>
-      <c r="S47" s="154"/>
-      <c r="T47" s="154"/>
-      <c r="U47" s="155"/>
-      <c r="V47" s="156"/>
-      <c r="W47" s="157"/>
-      <c r="X47" s="157"/>
-      <c r="Y47" s="157"/>
-      <c r="Z47" s="157"/>
-      <c r="AA47" s="157"/>
-      <c r="AB47" s="158"/>
-      <c r="AC47" s="152" t="s">
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="161"/>
+      <c r="O47" s="163"/>
+      <c r="P47" s="164"/>
+      <c r="Q47" s="164"/>
+      <c r="R47" s="164"/>
+      <c r="S47" s="164"/>
+      <c r="T47" s="164"/>
+      <c r="U47" s="165"/>
+      <c r="V47" s="146"/>
+      <c r="W47" s="160"/>
+      <c r="X47" s="160"/>
+      <c r="Y47" s="160"/>
+      <c r="Z47" s="160"/>
+      <c r="AA47" s="160"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="AD47" s="154"/>
-      <c r="AE47" s="154"/>
-      <c r="AF47" s="154"/>
-      <c r="AG47" s="154"/>
-      <c r="AH47" s="154"/>
-      <c r="AI47" s="155"/>
-      <c r="AJ47" s="156"/>
-      <c r="AK47" s="157"/>
-      <c r="AL47" s="157"/>
-      <c r="AM47" s="157"/>
-      <c r="AN47" s="157"/>
-      <c r="AO47" s="157"/>
-      <c r="AP47" s="158"/>
-      <c r="AQ47" s="122" t="s">
+      <c r="AD47" s="164"/>
+      <c r="AE47" s="164"/>
+      <c r="AF47" s="164"/>
+      <c r="AG47" s="164"/>
+      <c r="AH47" s="164"/>
+      <c r="AI47" s="165"/>
+      <c r="AJ47" s="146"/>
+      <c r="AK47" s="160"/>
+      <c r="AL47" s="160"/>
+      <c r="AM47" s="160"/>
+      <c r="AN47" s="160"/>
+      <c r="AO47" s="160"/>
+      <c r="AP47" s="161"/>
+      <c r="AQ47" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="AR47" s="123"/>
-      <c r="AS47" s="123"/>
-      <c r="AT47" s="123"/>
-      <c r="AU47" s="123"/>
-      <c r="AV47" s="123"/>
-      <c r="AW47" s="127"/>
-      <c r="AX47" s="156"/>
-      <c r="AY47" s="163"/>
-      <c r="AZ47" s="163"/>
-      <c r="BA47" s="163"/>
-      <c r="BB47" s="163"/>
-      <c r="BC47" s="164"/>
+      <c r="AR47" s="144"/>
+      <c r="AS47" s="144"/>
+      <c r="AT47" s="144"/>
+      <c r="AU47" s="144"/>
+      <c r="AV47" s="144"/>
+      <c r="AW47" s="145"/>
+      <c r="AX47" s="146"/>
+      <c r="AY47" s="147"/>
+      <c r="AZ47" s="147"/>
+      <c r="BA47" s="147"/>
+      <c r="BB47" s="147"/>
+      <c r="BC47" s="148"/>
       <c r="BD47" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="115" t="s">
+    <row r="48" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
-      <c r="L48" s="159"/>
-      <c r="M48" s="159"/>
-      <c r="N48" s="159"/>
-      <c r="O48" s="160" t="s">
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="141"/>
+      <c r="N48" s="141"/>
+      <c r="O48" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="161"/>
-      <c r="R48" s="161"/>
-      <c r="S48" s="161"/>
-      <c r="T48" s="161"/>
-      <c r="U48" s="162"/>
-      <c r="V48" s="159"/>
-      <c r="W48" s="159"/>
-      <c r="X48" s="159"/>
-      <c r="Y48" s="159"/>
-      <c r="Z48" s="159"/>
-      <c r="AA48" s="159"/>
-      <c r="AB48" s="159"/>
-      <c r="AC48" s="160" t="s">
+      <c r="P48" s="150"/>
+      <c r="Q48" s="150"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="150"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="141"/>
+      <c r="W48" s="141"/>
+      <c r="X48" s="141"/>
+      <c r="Y48" s="141"/>
+      <c r="Z48" s="141"/>
+      <c r="AA48" s="141"/>
+      <c r="AB48" s="141"/>
+      <c r="AC48" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="161"/>
-      <c r="AF48" s="161"/>
-      <c r="AG48" s="161"/>
-      <c r="AH48" s="161"/>
-      <c r="AI48" s="162"/>
-      <c r="AJ48" s="159"/>
-      <c r="AK48" s="159"/>
-      <c r="AL48" s="159"/>
-      <c r="AM48" s="159"/>
-      <c r="AN48" s="159"/>
-      <c r="AO48" s="159"/>
-      <c r="AP48" s="159"/>
-      <c r="AQ48" s="122" t="s">
+      <c r="AD48" s="150"/>
+      <c r="AE48" s="150"/>
+      <c r="AF48" s="150"/>
+      <c r="AG48" s="150"/>
+      <c r="AH48" s="150"/>
+      <c r="AI48" s="151"/>
+      <c r="AJ48" s="141"/>
+      <c r="AK48" s="141"/>
+      <c r="AL48" s="141"/>
+      <c r="AM48" s="141"/>
+      <c r="AN48" s="141"/>
+      <c r="AO48" s="141"/>
+      <c r="AP48" s="141"/>
+      <c r="AQ48" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="AR48" s="123"/>
-      <c r="AS48" s="123"/>
-      <c r="AT48" s="123"/>
-      <c r="AU48" s="123"/>
-      <c r="AV48" s="123"/>
-      <c r="AW48" s="127"/>
-      <c r="AX48" s="156"/>
-      <c r="AY48" s="163"/>
-      <c r="AZ48" s="163"/>
-      <c r="BA48" s="163"/>
-      <c r="BB48" s="163"/>
-      <c r="BC48" s="164"/>
+      <c r="AR48" s="144"/>
+      <c r="AS48" s="144"/>
+      <c r="AT48" s="144"/>
+      <c r="AU48" s="144"/>
+      <c r="AV48" s="144"/>
+      <c r="AW48" s="145"/>
+      <c r="AX48" s="146"/>
+      <c r="AY48" s="147"/>
+      <c r="AZ48" s="147"/>
+      <c r="BA48" s="147"/>
+      <c r="BB48" s="147"/>
+      <c r="BC48" s="148"/>
       <c r="BD48" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="130"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="131"/>
-      <c r="P49" s="131"/>
-      <c r="Q49" s="131"/>
-      <c r="R49" s="131"/>
-      <c r="S49" s="131"/>
-      <c r="T49" s="131"/>
-      <c r="U49" s="131"/>
-      <c r="V49" s="131"/>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="131"/>
-      <c r="AB49" s="131"/>
-      <c r="AC49" s="131"/>
-      <c r="AD49" s="131"/>
-      <c r="AE49" s="131"/>
-      <c r="AF49" s="131"/>
-      <c r="AG49" s="131"/>
-      <c r="AH49" s="131"/>
-      <c r="AI49" s="131"/>
-      <c r="AJ49" s="131"/>
-      <c r="AK49" s="131"/>
-      <c r="AL49" s="131"/>
-      <c r="AM49" s="131"/>
-      <c r="AN49" s="131"/>
-      <c r="AO49" s="131"/>
-      <c r="AP49" s="132"/>
-      <c r="AQ49" s="130" t="s">
+    <row r="49" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="152"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="153"/>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="153"/>
+      <c r="V49" s="153"/>
+      <c r="W49" s="153"/>
+      <c r="X49" s="153"/>
+      <c r="Y49" s="153"/>
+      <c r="Z49" s="153"/>
+      <c r="AA49" s="153"/>
+      <c r="AB49" s="153"/>
+      <c r="AC49" s="153"/>
+      <c r="AD49" s="153"/>
+      <c r="AE49" s="153"/>
+      <c r="AF49" s="153"/>
+      <c r="AG49" s="153"/>
+      <c r="AH49" s="153"/>
+      <c r="AI49" s="153"/>
+      <c r="AJ49" s="153"/>
+      <c r="AK49" s="153"/>
+      <c r="AL49" s="153"/>
+      <c r="AM49" s="153"/>
+      <c r="AN49" s="153"/>
+      <c r="AO49" s="153"/>
+      <c r="AP49" s="154"/>
+      <c r="AQ49" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="AR49" s="131"/>
-      <c r="AS49" s="131"/>
-      <c r="AT49" s="131"/>
-      <c r="AU49" s="131"/>
-      <c r="AV49" s="131"/>
-      <c r="AW49" s="131"/>
-      <c r="AX49" s="131"/>
-      <c r="AY49" s="131"/>
-      <c r="AZ49" s="131"/>
-      <c r="BA49" s="131"/>
-      <c r="BB49" s="131"/>
-      <c r="BC49" s="132"/>
+      <c r="AR49" s="153"/>
+      <c r="AS49" s="153"/>
+      <c r="AT49" s="153"/>
+      <c r="AU49" s="153"/>
+      <c r="AV49" s="153"/>
+      <c r="AW49" s="153"/>
+      <c r="AX49" s="153"/>
+      <c r="AY49" s="153"/>
+      <c r="AZ49" s="153"/>
+      <c r="BA49" s="153"/>
+      <c r="BB49" s="153"/>
+      <c r="BC49" s="154"/>
       <c r="BD49" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="166" t="s">
+    <row r="50" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="167" t="s">
+      <c r="B50" s="131"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="166" t="s">
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="166"/>
-      <c r="R50" s="166"/>
-      <c r="S50" s="166"/>
-      <c r="T50" s="166"/>
-      <c r="U50" s="166"/>
-      <c r="V50" s="166" t="s">
+      <c r="P50" s="131"/>
+      <c r="Q50" s="131"/>
+      <c r="R50" s="131"/>
+      <c r="S50" s="131"/>
+      <c r="T50" s="131"/>
+      <c r="U50" s="131"/>
+      <c r="V50" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="166"/>
-      <c r="X50" s="166"/>
-      <c r="Y50" s="166"/>
-      <c r="Z50" s="166"/>
-      <c r="AA50" s="166"/>
-      <c r="AB50" s="166"/>
-      <c r="AC50" s="166" t="s">
+      <c r="W50" s="131"/>
+      <c r="X50" s="131"/>
+      <c r="Y50" s="131"/>
+      <c r="Z50" s="131"/>
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="131"/>
+      <c r="AC50" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="166"/>
-      <c r="AE50" s="166"/>
-      <c r="AF50" s="166"/>
-      <c r="AG50" s="166"/>
-      <c r="AH50" s="166"/>
-      <c r="AI50" s="166"/>
-      <c r="AJ50" s="166" t="s">
+      <c r="AD50" s="131"/>
+      <c r="AE50" s="131"/>
+      <c r="AF50" s="131"/>
+      <c r="AG50" s="131"/>
+      <c r="AH50" s="131"/>
+      <c r="AI50" s="131"/>
+      <c r="AJ50" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="AK50" s="166"/>
-      <c r="AL50" s="166"/>
-      <c r="AM50" s="166"/>
-      <c r="AN50" s="166"/>
-      <c r="AO50" s="166"/>
-      <c r="AP50" s="166"/>
-      <c r="AQ50" s="122" t="s">
+      <c r="AK50" s="131"/>
+      <c r="AL50" s="131"/>
+      <c r="AM50" s="131"/>
+      <c r="AN50" s="131"/>
+      <c r="AO50" s="131"/>
+      <c r="AP50" s="131"/>
+      <c r="AQ50" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="AR50" s="123"/>
-      <c r="AS50" s="123"/>
-      <c r="AT50" s="123"/>
-      <c r="AU50" s="123"/>
-      <c r="AV50" s="123"/>
-      <c r="AW50" s="127"/>
-      <c r="AX50" s="156"/>
-      <c r="AY50" s="163"/>
-      <c r="AZ50" s="163"/>
-      <c r="BA50" s="163"/>
-      <c r="BB50" s="163"/>
-      <c r="BC50" s="164"/>
+      <c r="AR50" s="144"/>
+      <c r="AS50" s="144"/>
+      <c r="AT50" s="144"/>
+      <c r="AU50" s="144"/>
+      <c r="AV50" s="144"/>
+      <c r="AW50" s="145"/>
+      <c r="AX50" s="146"/>
+      <c r="AY50" s="147"/>
+      <c r="AZ50" s="147"/>
+      <c r="BA50" s="147"/>
+      <c r="BB50" s="147"/>
+      <c r="BC50" s="148"/>
       <c r="BD50" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="166"/>
-      <c r="B51" s="166"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="172"/>
-      <c r="O51" s="166"/>
-      <c r="P51" s="166"/>
-      <c r="Q51" s="166"/>
-      <c r="R51" s="166"/>
-      <c r="S51" s="166"/>
-      <c r="T51" s="166"/>
-      <c r="U51" s="166"/>
-      <c r="V51" s="166"/>
-      <c r="W51" s="166"/>
-      <c r="X51" s="166"/>
-      <c r="Y51" s="166"/>
-      <c r="Z51" s="166"/>
-      <c r="AA51" s="166"/>
-      <c r="AB51" s="166"/>
-      <c r="AC51" s="166"/>
-      <c r="AD51" s="166"/>
-      <c r="AE51" s="166"/>
-      <c r="AF51" s="166"/>
-      <c r="AG51" s="166"/>
-      <c r="AH51" s="166"/>
-      <c r="AI51" s="166"/>
-      <c r="AJ51" s="166"/>
-      <c r="AK51" s="166"/>
-      <c r="AL51" s="166"/>
-      <c r="AM51" s="166"/>
-      <c r="AN51" s="166"/>
-      <c r="AO51" s="166"/>
-      <c r="AP51" s="166"/>
-      <c r="AQ51" s="128" t="s">
+    <row r="51" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="131"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="137"/>
+      <c r="O51" s="131"/>
+      <c r="P51" s="131"/>
+      <c r="Q51" s="131"/>
+      <c r="R51" s="131"/>
+      <c r="S51" s="131"/>
+      <c r="T51" s="131"/>
+      <c r="U51" s="131"/>
+      <c r="V51" s="131"/>
+      <c r="W51" s="131"/>
+      <c r="X51" s="131"/>
+      <c r="Y51" s="131"/>
+      <c r="Z51" s="131"/>
+      <c r="AA51" s="131"/>
+      <c r="AB51" s="131"/>
+      <c r="AC51" s="131"/>
+      <c r="AD51" s="131"/>
+      <c r="AE51" s="131"/>
+      <c r="AF51" s="131"/>
+      <c r="AG51" s="131"/>
+      <c r="AH51" s="131"/>
+      <c r="AI51" s="131"/>
+      <c r="AJ51" s="131"/>
+      <c r="AK51" s="131"/>
+      <c r="AL51" s="131"/>
+      <c r="AM51" s="131"/>
+      <c r="AN51" s="131"/>
+      <c r="AO51" s="131"/>
+      <c r="AP51" s="131"/>
+      <c r="AQ51" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="AR51" s="128"/>
-      <c r="AS51" s="128"/>
-      <c r="AT51" s="128"/>
-      <c r="AU51" s="128"/>
-      <c r="AV51" s="128"/>
-      <c r="AW51" s="128"/>
-      <c r="AX51" s="151"/>
-      <c r="AY51" s="151"/>
-      <c r="AZ51" s="151"/>
-      <c r="BA51" s="151"/>
-      <c r="BB51" s="151"/>
-      <c r="BC51" s="151"/>
+      <c r="AR51" s="162"/>
+      <c r="AS51" s="162"/>
+      <c r="AT51" s="162"/>
+      <c r="AU51" s="162"/>
+      <c r="AV51" s="162"/>
+      <c r="AW51" s="162"/>
+      <c r="AX51" s="62"/>
+      <c r="AY51" s="62"/>
+      <c r="AZ51" s="62"/>
+      <c r="BA51" s="62"/>
+      <c r="BB51" s="62"/>
+      <c r="BC51" s="62"/>
       <c r="BD51" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="171"/>
-      <c r="M52" s="171"/>
-      <c r="N52" s="172"/>
-      <c r="O52" s="166"/>
-      <c r="P52" s="166"/>
-      <c r="Q52" s="166"/>
-      <c r="R52" s="166"/>
-      <c r="S52" s="166"/>
-      <c r="T52" s="166"/>
-      <c r="U52" s="166"/>
-      <c r="V52" s="166"/>
-      <c r="W52" s="166"/>
-      <c r="X52" s="166"/>
-      <c r="Y52" s="166"/>
-      <c r="Z52" s="166"/>
-      <c r="AA52" s="166"/>
-      <c r="AB52" s="166"/>
-      <c r="AC52" s="166"/>
-      <c r="AD52" s="166"/>
-      <c r="AE52" s="166"/>
-      <c r="AF52" s="166"/>
-      <c r="AG52" s="166"/>
-      <c r="AH52" s="166"/>
-      <c r="AI52" s="166"/>
-      <c r="AJ52" s="166"/>
-      <c r="AK52" s="166"/>
-      <c r="AL52" s="166"/>
-      <c r="AM52" s="166"/>
-      <c r="AN52" s="166"/>
-      <c r="AO52" s="166"/>
-      <c r="AP52" s="166"/>
-      <c r="AQ52" s="129" t="s">
+    <row r="52" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="131"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="131"/>
+      <c r="P52" s="131"/>
+      <c r="Q52" s="131"/>
+      <c r="R52" s="131"/>
+      <c r="S52" s="131"/>
+      <c r="T52" s="131"/>
+      <c r="U52" s="131"/>
+      <c r="V52" s="131"/>
+      <c r="W52" s="131"/>
+      <c r="X52" s="131"/>
+      <c r="Y52" s="131"/>
+      <c r="Z52" s="131"/>
+      <c r="AA52" s="131"/>
+      <c r="AB52" s="131"/>
+      <c r="AC52" s="131"/>
+      <c r="AD52" s="131"/>
+      <c r="AE52" s="131"/>
+      <c r="AF52" s="131"/>
+      <c r="AG52" s="131"/>
+      <c r="AH52" s="131"/>
+      <c r="AI52" s="131"/>
+      <c r="AJ52" s="131"/>
+      <c r="AK52" s="131"/>
+      <c r="AL52" s="131"/>
+      <c r="AM52" s="131"/>
+      <c r="AN52" s="131"/>
+      <c r="AO52" s="131"/>
+      <c r="AP52" s="131"/>
+      <c r="AQ52" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="AR52" s="124"/>
-      <c r="AS52" s="124"/>
-      <c r="AT52" s="124"/>
-      <c r="AU52" s="124"/>
-      <c r="AV52" s="124"/>
-      <c r="AW52" s="125"/>
-      <c r="AX52" s="165"/>
-      <c r="AY52" s="157"/>
-      <c r="AZ52" s="157"/>
-      <c r="BA52" s="157"/>
-      <c r="BB52" s="157"/>
-      <c r="BC52" s="158"/>
+      <c r="AR52" s="157"/>
+      <c r="AS52" s="157"/>
+      <c r="AT52" s="157"/>
+      <c r="AU52" s="157"/>
+      <c r="AV52" s="157"/>
+      <c r="AW52" s="158"/>
+      <c r="AX52" s="159"/>
+      <c r="AY52" s="160"/>
+      <c r="AZ52" s="160"/>
+      <c r="BA52" s="160"/>
+      <c r="BB52" s="160"/>
+      <c r="BC52" s="161"/>
       <c r="BD52" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="166" t="s">
+    <row r="53" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="171"/>
-      <c r="N53" s="172"/>
-      <c r="O53" s="166"/>
-      <c r="P53" s="166"/>
-      <c r="Q53" s="166"/>
-      <c r="R53" s="166"/>
-      <c r="S53" s="166"/>
-      <c r="T53" s="166"/>
-      <c r="U53" s="166"/>
-      <c r="V53" s="166"/>
-      <c r="W53" s="166"/>
-      <c r="X53" s="166"/>
-      <c r="Y53" s="166"/>
-      <c r="Z53" s="166"/>
-      <c r="AA53" s="166"/>
-      <c r="AB53" s="166"/>
-      <c r="AC53" s="166"/>
-      <c r="AD53" s="166"/>
-      <c r="AE53" s="166"/>
-      <c r="AF53" s="166"/>
-      <c r="AG53" s="166"/>
-      <c r="AH53" s="166"/>
-      <c r="AI53" s="166"/>
-      <c r="AJ53" s="166"/>
-      <c r="AK53" s="166"/>
-      <c r="AL53" s="166"/>
-      <c r="AM53" s="166"/>
-      <c r="AN53" s="166"/>
-      <c r="AO53" s="166"/>
-      <c r="AP53" s="166"/>
-      <c r="AQ53" s="129" t="s">
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="131"/>
+      <c r="Q53" s="131"/>
+      <c r="R53" s="131"/>
+      <c r="S53" s="131"/>
+      <c r="T53" s="131"/>
+      <c r="U53" s="131"/>
+      <c r="V53" s="131"/>
+      <c r="W53" s="131"/>
+      <c r="X53" s="131"/>
+      <c r="Y53" s="131"/>
+      <c r="Z53" s="131"/>
+      <c r="AA53" s="131"/>
+      <c r="AB53" s="131"/>
+      <c r="AC53" s="131"/>
+      <c r="AD53" s="131"/>
+      <c r="AE53" s="131"/>
+      <c r="AF53" s="131"/>
+      <c r="AG53" s="131"/>
+      <c r="AH53" s="131"/>
+      <c r="AI53" s="131"/>
+      <c r="AJ53" s="131"/>
+      <c r="AK53" s="131"/>
+      <c r="AL53" s="131"/>
+      <c r="AM53" s="131"/>
+      <c r="AN53" s="131"/>
+      <c r="AO53" s="131"/>
+      <c r="AP53" s="131"/>
+      <c r="AQ53" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="AR53" s="124"/>
-      <c r="AS53" s="124"/>
-      <c r="AT53" s="124"/>
-      <c r="AU53" s="124"/>
-      <c r="AV53" s="124"/>
-      <c r="AW53" s="125"/>
-      <c r="AX53" s="165"/>
-      <c r="AY53" s="157"/>
-      <c r="AZ53" s="157"/>
-      <c r="BA53" s="157"/>
-      <c r="BB53" s="157"/>
-      <c r="BC53" s="158"/>
+      <c r="AR53" s="157"/>
+      <c r="AS53" s="157"/>
+      <c r="AT53" s="157"/>
+      <c r="AU53" s="157"/>
+      <c r="AV53" s="157"/>
+      <c r="AW53" s="158"/>
+      <c r="AX53" s="159"/>
+      <c r="AY53" s="160"/>
+      <c r="AZ53" s="160"/>
+      <c r="BA53" s="160"/>
+      <c r="BB53" s="160"/>
+      <c r="BC53" s="161"/>
       <c r="BD53" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
-      <c r="E54" s="166"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="174"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="175"/>
-      <c r="O54" s="166"/>
-      <c r="P54" s="166"/>
-      <c r="Q54" s="166"/>
-      <c r="R54" s="166"/>
-      <c r="S54" s="166"/>
-      <c r="T54" s="166"/>
-      <c r="U54" s="166"/>
-      <c r="V54" s="166"/>
-      <c r="W54" s="166"/>
-      <c r="X54" s="166"/>
-      <c r="Y54" s="166"/>
-      <c r="Z54" s="166"/>
-      <c r="AA54" s="166"/>
-      <c r="AB54" s="166"/>
-      <c r="AC54" s="166"/>
-      <c r="AD54" s="166"/>
-      <c r="AE54" s="166"/>
-      <c r="AF54" s="166"/>
-      <c r="AG54" s="166"/>
-      <c r="AH54" s="166"/>
-      <c r="AI54" s="166"/>
-      <c r="AJ54" s="166"/>
-      <c r="AK54" s="166"/>
-      <c r="AL54" s="166"/>
-      <c r="AM54" s="166"/>
-      <c r="AN54" s="166"/>
-      <c r="AO54" s="166"/>
-      <c r="AP54" s="166"/>
-      <c r="AQ54" s="129" t="s">
+    <row r="54" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="131"/>
+      <c r="Q54" s="131"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="131"/>
+      <c r="T54" s="131"/>
+      <c r="U54" s="131"/>
+      <c r="V54" s="131"/>
+      <c r="W54" s="131"/>
+      <c r="X54" s="131"/>
+      <c r="Y54" s="131"/>
+      <c r="Z54" s="131"/>
+      <c r="AA54" s="131"/>
+      <c r="AB54" s="131"/>
+      <c r="AC54" s="131"/>
+      <c r="AD54" s="131"/>
+      <c r="AE54" s="131"/>
+      <c r="AF54" s="131"/>
+      <c r="AG54" s="131"/>
+      <c r="AH54" s="131"/>
+      <c r="AI54" s="131"/>
+      <c r="AJ54" s="131"/>
+      <c r="AK54" s="131"/>
+      <c r="AL54" s="131"/>
+      <c r="AM54" s="131"/>
+      <c r="AN54" s="131"/>
+      <c r="AO54" s="131"/>
+      <c r="AP54" s="131"/>
+      <c r="AQ54" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="AR54" s="124"/>
-      <c r="AS54" s="124"/>
-      <c r="AT54" s="124"/>
-      <c r="AU54" s="124"/>
-      <c r="AV54" s="124"/>
-      <c r="AW54" s="125"/>
-      <c r="AX54" s="165"/>
-      <c r="AY54" s="157"/>
-      <c r="AZ54" s="157"/>
-      <c r="BA54" s="157"/>
-      <c r="BB54" s="157"/>
-      <c r="BC54" s="158"/>
+      <c r="AR54" s="157"/>
+      <c r="AS54" s="157"/>
+      <c r="AT54" s="157"/>
+      <c r="AU54" s="157"/>
+      <c r="AV54" s="157"/>
+      <c r="AW54" s="158"/>
+      <c r="AX54" s="159"/>
+      <c r="AY54" s="160"/>
+      <c r="AZ54" s="160"/>
+      <c r="BA54" s="160"/>
+      <c r="BB54" s="160"/>
+      <c r="BC54" s="161"/>
       <c r="BD54" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="159" t="s">
+    <row r="55" spans="1:56" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="131"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="176"/>
-      <c r="O55" s="166"/>
-      <c r="P55" s="166"/>
-      <c r="Q55" s="166"/>
-      <c r="R55" s="166"/>
-      <c r="S55" s="166"/>
-      <c r="T55" s="166"/>
-      <c r="U55" s="166"/>
-      <c r="V55" s="166"/>
-      <c r="W55" s="166"/>
-      <c r="X55" s="166"/>
-      <c r="Y55" s="166"/>
-      <c r="Z55" s="166"/>
-      <c r="AA55" s="166"/>
-      <c r="AB55" s="166"/>
-      <c r="AC55" s="166"/>
-      <c r="AD55" s="166"/>
-      <c r="AE55" s="166"/>
-      <c r="AF55" s="166"/>
-      <c r="AG55" s="166"/>
-      <c r="AH55" s="166"/>
-      <c r="AI55" s="166"/>
-      <c r="AJ55" s="166"/>
-      <c r="AK55" s="166"/>
-      <c r="AL55" s="166"/>
-      <c r="AM55" s="166"/>
-      <c r="AN55" s="166"/>
-      <c r="AO55" s="166"/>
-      <c r="AP55" s="166"/>
-      <c r="AQ55" s="115" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="141"/>
+      <c r="L55" s="142"/>
+      <c r="M55" s="142"/>
+      <c r="N55" s="142"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="131"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="131"/>
+      <c r="AC55" s="131"/>
+      <c r="AD55" s="131"/>
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="131"/>
+      <c r="AG55" s="131"/>
+      <c r="AH55" s="131"/>
+      <c r="AI55" s="131"/>
+      <c r="AJ55" s="131"/>
+      <c r="AK55" s="131"/>
+      <c r="AL55" s="131"/>
+      <c r="AM55" s="131"/>
+      <c r="AN55" s="131"/>
+      <c r="AO55" s="131"/>
+      <c r="AP55" s="131"/>
+      <c r="AQ55" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="AR55" s="115"/>
-      <c r="AS55" s="115"/>
-      <c r="AT55" s="115"/>
-      <c r="AU55" s="115"/>
-      <c r="AV55" s="115"/>
-      <c r="AW55" s="115"/>
-      <c r="AX55" s="62"/>
-      <c r="AY55" s="62"/>
-      <c r="AZ55" s="62"/>
-      <c r="BA55" s="62"/>
-      <c r="BB55" s="62"/>
-      <c r="BC55" s="62"/>
+      <c r="AR55" s="155"/>
+      <c r="AS55" s="155"/>
+      <c r="AT55" s="155"/>
+      <c r="AU55" s="155"/>
+      <c r="AV55" s="155"/>
+      <c r="AW55" s="155"/>
+      <c r="AX55" s="71"/>
+      <c r="AY55" s="71"/>
+      <c r="AZ55" s="71"/>
+      <c r="BA55" s="71"/>
+      <c r="BB55" s="71"/>
+      <c r="BC55" s="71"/>
       <c r="BD55" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:56" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="65" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="66" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="67" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="68" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="69" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="70" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="71" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="72" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="73" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="74" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="75" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="76" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="77" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="78" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="79" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="80" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="81" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="82" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="83" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="84" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="85" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="86" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="87" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="88" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="89" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="90" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="91" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="92" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="93" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="94" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="95" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="96" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="97" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="98" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="99" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="100" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="101" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="102" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="103" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="104" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="105" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="106" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="107" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="108" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="109" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="110" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="111" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="112" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="113" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="114" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="115" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="116" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="117" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="118" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="119" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="120" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="121" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="122" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="123" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="124" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="125" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="126" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="127" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="128" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="129" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="130" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="131" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="132" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="133" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="134" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="135" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="136" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="137" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="138" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="139" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="140" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="141" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="142" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="143" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="144" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="145" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="146" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="147" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="148" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="149" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="150" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="151" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="152" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="153" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="154" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="155" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="156" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="157" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="158" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="159" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="160" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="161" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="162" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="163" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="164" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="165" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="166" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="167" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="168" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="169" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="170" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="171" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="172" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="173" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="174" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="175" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="176" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="177" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="178" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="179" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="180" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="181" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="182" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="183" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="184" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="185" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="186" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="187" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="188" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="189" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="190" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="191" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="192" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="193" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="194" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="195" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="196" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="197" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="198" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="199" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="200" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="201" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="202" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="203" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="204" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="205" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="206" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="207" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="208" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="209" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="210" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="211" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="212" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="213" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="214" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="215" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="216" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="217" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="218" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="219" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="220" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="221" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="222" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="223" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="224" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="225" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="226" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="227" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="228" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="229" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="230" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="231" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="232" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="233" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="234" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="235" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="236" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="237" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="238" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="239" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="240" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="241" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="242" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="243" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="244" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="245" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="246" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="247" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="248" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="249" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="250" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="251" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="252" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="253" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="254" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="255" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="256" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="257" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="258" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="259" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="260" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="261" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="262" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="263" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="264" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="265" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="266" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="267" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="268" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="269" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="270" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="271" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="272" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="273" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="274" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="275" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="276" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="277" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="278" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="279" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="280" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="281" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="282" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="283" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="284" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="285" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="286" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="287" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="288" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="289" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="290" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="291" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="292" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="293" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="294" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="295" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="296" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="297" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="298" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="299" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="300" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="301" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="302" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="303" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="304" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="305" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="306" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:56" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="65" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="66" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="67" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="68" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="69" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="70" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="71" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="72" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="73" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="74" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="75" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="76" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="77" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="78" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="79" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="80" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="81" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="82" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="83" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="84" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="85" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="86" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="87" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="88" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="89" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="90" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="91" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="92" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="93" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="94" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="95" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="96" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="97" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="98" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="99" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="100" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="101" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="102" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="103" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="104" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="105" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="106" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="107" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="108" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="109" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="110" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="111" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="112" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="113" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="114" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="115" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="116" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="117" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="118" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="119" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="120" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="121" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="122" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="123" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="124" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="125" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="126" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="127" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="128" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="129" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="130" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="131" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="132" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="133" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="134" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="135" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="136" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="137" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="138" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="139" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="140" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="141" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="142" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="143" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="144" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="145" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="146" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="147" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="148" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="149" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="150" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="151" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="152" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="153" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="154" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="155" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="156" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="157" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="158" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="159" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="160" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="161" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="162" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="163" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="164" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="165" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="166" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="167" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="168" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="169" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="170" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="171" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="172" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="173" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="174" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="175" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="176" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="177" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="178" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="179" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="180" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="181" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="182" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="183" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="184" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="185" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="186" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="187" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="188" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="189" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="190" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="191" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="192" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="193" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="194" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="195" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="196" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="197" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="198" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="199" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="200" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="201" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="202" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="203" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="204" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="205" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="206" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="207" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="208" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="209" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="210" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="211" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="212" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="213" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="214" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="215" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="216" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="217" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="218" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="219" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="220" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="221" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="222" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="223" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="224" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="225" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="226" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="227" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="228" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="229" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="230" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="231" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="232" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="233" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="234" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="235" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="236" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="237" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="238" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="239" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="240" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="241" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="242" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="243" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="244" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="245" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="246" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="247" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="248" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="249" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="250" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="251" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="252" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="253" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="254" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="255" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="256" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="257" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="258" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="259" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="260" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="261" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="262" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="263" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="264" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="265" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="266" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="267" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="268" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="269" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="270" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="271" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="272" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="273" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="274" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="275" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="276" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="277" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="278" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="279" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="280" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="281" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="282" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="283" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="284" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="285" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="286" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="287" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="288" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="289" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="290" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="291" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="292" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="293" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="294" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="295" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="296" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="297" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="298" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="299" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="300" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="301" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="302" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="303" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="304" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="305" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
+    <row r="306" s="17" customFormat="1" ht="11.65" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A50:E52"/>
-    <mergeCell ref="A53:E55"/>
-    <mergeCell ref="O50:U55"/>
-    <mergeCell ref="V50:AB55"/>
-    <mergeCell ref="F50:N54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="P21:Z21"/>
+    <mergeCell ref="AA21:AZ21"/>
+    <mergeCell ref="P22:Z22"/>
+    <mergeCell ref="AA22:AZ22"/>
+    <mergeCell ref="P23:Z23"/>
+    <mergeCell ref="AA23:AZ23"/>
+    <mergeCell ref="P24:Z24"/>
+    <mergeCell ref="AA24:AZ24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="I41:O41"/>
+    <mergeCell ref="P41:W41"/>
+    <mergeCell ref="X41:AB41"/>
+    <mergeCell ref="AC41:AO41"/>
+    <mergeCell ref="AP41:AQ41"/>
+    <mergeCell ref="AR41:AU41"/>
+    <mergeCell ref="AV41:AY41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="AZ41:BC41"/>
+    <mergeCell ref="P18:Z18"/>
+    <mergeCell ref="AA18:AZ18"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="AA19:AZ19"/>
+    <mergeCell ref="P20:Z20"/>
+    <mergeCell ref="AA20:AZ20"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="AZ42:BC43"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="I42:O43"/>
+    <mergeCell ref="P42:W43"/>
+    <mergeCell ref="X42:AB43"/>
+    <mergeCell ref="AC42:AO43"/>
+    <mergeCell ref="AP42:AQ43"/>
+    <mergeCell ref="AR42:AU43"/>
+    <mergeCell ref="AV42:AY43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="H45:N45"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="O45:U45"/>
+    <mergeCell ref="V45:AB45"/>
+    <mergeCell ref="AJ47:AP47"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="O44:AB44"/>
+    <mergeCell ref="AC44:AP44"/>
+    <mergeCell ref="AQ44:BC44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="AC45:AI45"/>
+    <mergeCell ref="AJ45:AP45"/>
+    <mergeCell ref="AQ46:AW46"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="AQ45:AW45"/>
+    <mergeCell ref="AX46:BC46"/>
+    <mergeCell ref="AQ54:AW54"/>
+    <mergeCell ref="AX54:BC54"/>
+    <mergeCell ref="AQ51:AW51"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="H46:N46"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="V46:AB46"/>
+    <mergeCell ref="AC46:AI46"/>
+    <mergeCell ref="AJ46:AP46"/>
+    <mergeCell ref="AQ50:AW50"/>
+    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="V47:AB47"/>
+    <mergeCell ref="AC47:AI47"/>
     <mergeCell ref="AC50:AI55"/>
     <mergeCell ref="AJ50:AP55"/>
     <mergeCell ref="AQ48:AW48"/>
@@ -7828,76 +7957,13 @@
     <mergeCell ref="AX52:BC52"/>
     <mergeCell ref="AQ53:AW53"/>
     <mergeCell ref="AX53:BC53"/>
-    <mergeCell ref="AQ54:AW54"/>
-    <mergeCell ref="AX54:BC54"/>
-    <mergeCell ref="AQ51:AW51"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="H46:N46"/>
-    <mergeCell ref="O46:U46"/>
-    <mergeCell ref="V46:AB46"/>
-    <mergeCell ref="AC46:AI46"/>
-    <mergeCell ref="AJ46:AP46"/>
-    <mergeCell ref="AQ50:AW50"/>
-    <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="V47:AB47"/>
-    <mergeCell ref="AC47:AI47"/>
-    <mergeCell ref="AJ47:AP47"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="O44:AB44"/>
-    <mergeCell ref="AC44:AP44"/>
-    <mergeCell ref="AQ44:BC44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="AC45:AI45"/>
-    <mergeCell ref="AJ45:AP45"/>
-    <mergeCell ref="AQ46:AW46"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="AQ45:AW45"/>
-    <mergeCell ref="AX46:BC46"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="AZ42:BC43"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="I42:O43"/>
-    <mergeCell ref="P42:W43"/>
-    <mergeCell ref="X42:AB43"/>
-    <mergeCell ref="AC42:AO43"/>
-    <mergeCell ref="AP42:AQ43"/>
-    <mergeCell ref="AR42:AU43"/>
-    <mergeCell ref="AV42:AY43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="H45:N45"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="O45:U45"/>
-    <mergeCell ref="V45:AB45"/>
-    <mergeCell ref="P18:Z18"/>
-    <mergeCell ref="AA18:AZ18"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="AA19:AZ19"/>
-    <mergeCell ref="P20:Z20"/>
-    <mergeCell ref="AA20:AZ20"/>
-    <mergeCell ref="P24:Z24"/>
-    <mergeCell ref="AA24:AZ24"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="I41:O41"/>
-    <mergeCell ref="P41:W41"/>
-    <mergeCell ref="X41:AB41"/>
-    <mergeCell ref="AC41:AO41"/>
-    <mergeCell ref="AP41:AQ41"/>
-    <mergeCell ref="AR41:AU41"/>
-    <mergeCell ref="AV41:AY41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="AZ41:BC41"/>
-    <mergeCell ref="P21:Z21"/>
-    <mergeCell ref="AA21:AZ21"/>
-    <mergeCell ref="P22:Z22"/>
-    <mergeCell ref="AA22:AZ22"/>
-    <mergeCell ref="P23:Z23"/>
-    <mergeCell ref="AA23:AZ23"/>
+    <mergeCell ref="A50:E52"/>
+    <mergeCell ref="A53:E55"/>
+    <mergeCell ref="O50:U55"/>
+    <mergeCell ref="V50:AB55"/>
+    <mergeCell ref="F50:N54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="K55:N55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.62992125984251968" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7915,105 +7981,105 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="16" max="17" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
+    <row r="2" spans="2:17" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
-    </row>
-    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="74" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="186"/>
+    </row>
+    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.65">
+      <c r="B3" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="186"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="G4" s="5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="137"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="186"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="137"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="186"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="137"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="186"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B9" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="137"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="186"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="137"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="186"/>
+    </row>
+    <row r="13" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -8031,7 +8097,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B14" s="53"/>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -8049,45 +8115,45 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="138" t="s">
+    <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="138" t="s">
+      <c r="I15" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="140"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="197"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
+    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="200"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="140"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="196"/>
+      <c r="N16" s="197"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="41"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -8105,7 +8171,7 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="41"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -8123,45 +8189,45 @@
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="41"/>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="39"/>
       <c r="I19" s="59"/>
-      <c r="J19" s="148" t="s">
+      <c r="J19" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="193"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="190"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="41"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="134"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="39"/>
       <c r="I20" s="59"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="134"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="193"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="190"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="43"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -8179,7 +8245,7 @@
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="41"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -8197,45 +8263,45 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="41"/>
-      <c r="C23" s="146" t="s">
+      <c r="C23" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="190"/>
       <c r="H23" s="39"/>
       <c r="I23" s="59"/>
-      <c r="J23" s="148" t="s">
+      <c r="J23" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="190"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="43"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="134"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="190"/>
       <c r="H24" s="37"/>
       <c r="I24" s="59"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="134"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="193"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="190"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
     </row>
-    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="45"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -8253,7 +8319,7 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -8271,7 +8337,7 @@
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -8289,7 +8355,7 @@
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
@@ -8307,28 +8373,37 @@
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
     </row>
-    <row r="29" spans="2:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B29" s="144" t="s">
+    <row r="29" spans="2:17" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="B29" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="I15:N16"/>
+    <mergeCell ref="B15:G16"/>
     <mergeCell ref="B29:O29"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:I10"/>
@@ -8345,15 +8420,6 @@
     <mergeCell ref="J19:L20"/>
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="J23:L24"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="I15:N16"/>
-    <mergeCell ref="B15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
